--- a/Аналіз_абонентів.xlsx
+++ b/Аналіз_абонентів.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841302A1-CE7E-47CB-94C7-F91C8E63B59E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E92F5FD-967A-4868-98A5-0808496D4E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1196,6 +1196,24 @@
     <t xml:space="preserve"> Час розмов, год</t>
   </si>
   <si>
+    <t>Динаміка виручки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Виручка по статі та віку </t>
+  </si>
+  <si>
+    <t>Поверх пакету</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Поверх пакету</t>
+  </si>
+  <si>
+    <t>Плата за послуги</t>
+  </si>
+  <si>
+    <t>Розподіл по тарифам</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -1206,7 +1224,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Абонентска база</t>
+      <t>Абонентська база</t>
     </r>
     <r>
       <rPr>
@@ -1219,24 +1237,6 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
-  </si>
-  <si>
-    <t>Динаміка виручки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Виручка по статі та віку </t>
-  </si>
-  <si>
-    <t>Поверх пакету</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Поверх пакету</t>
-  </si>
-  <si>
-    <t>Плата за послуги</t>
-  </si>
-  <si>
-    <t>Розподіл по тарифам</t>
   </si>
 </sst>
 </file>
@@ -1391,7 +1391,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -1407,127 +1407,12 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
-    <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
@@ -1565,7 +1450,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Портрет клієнта – копія.xlsx]Sheet2!PivotTable4</c:name>
+    <c:name>[Аналіз_абонентів.xlsx]Sheet2!PivotTable4</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
@@ -2178,7 +2063,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Портрет клієнта – копія.xlsx]Sheet2!PivotTable1</c:name>
+    <c:name>[Аналіз_абонентів.xlsx]Sheet2!PivotTable1</c:name>
     <c:fmtId val="13"/>
   </c:pivotSource>
   <c:chart>
@@ -3376,7 +3261,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Портрет клієнта – копія.xlsx]Sheet2!PivotTable2</c:name>
+    <c:name>[Аналіз_абонентів.xlsx]Sheet2!PivotTable2</c:name>
     <c:fmtId val="5"/>
   </c:pivotSource>
   <c:chart>
@@ -5112,7 +4997,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Портрет клієнта – копія.xlsx]Sheet2!PivotTable5</c:name>
+    <c:name>[Аналіз_абонентів.xlsx]Sheet2!PivotTable5</c:name>
     <c:fmtId val="4"/>
   </c:pivotSource>
   <c:chart>
@@ -5851,7 +5736,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Портрет клієнта – копія.xlsx]Sheet2!PivotTable1</c:name>
+    <c:name>[Аналіз_абонентів.xlsx]Sheet2!PivotTable1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -6567,7 +6452,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Портрет клієнта – копія.xlsx]Sheet2!PivotTable2</c:name>
+    <c:name>[Аналіз_абонентів.xlsx]Sheet2!PivotTable2</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -7444,7 +7329,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Портрет клієнта – копія.xlsx]Sheet2!PivotTable4</c:name>
+    <c:name>[Аналіз_абонентів.xlsx]Sheet2!PivotTable4</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -7846,7 +7731,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Портрет клієнта – копія.xlsx]Sheet2!PivotTable5</c:name>
+    <c:name>[Аналіз_абонентів.xlsx]Sheet2!PivotTable5</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -19787,6 +19672,1864 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A19CA87A-92E3-46FB-84D7-FC9895FF6630}" name="PivotTable4" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A32:B36" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="15">
+    <pivotField numFmtId="14" showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="339">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="369">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item sd="0" x="14"/>
+        <item sd="0" x="15"/>
+        <item sd="0" x="16"/>
+        <item sd="0" x="17"/>
+        <item sd="0" x="18"/>
+        <item sd="0" x="19"/>
+        <item sd="0" x="20"/>
+        <item sd="0" x="21"/>
+        <item sd="0" x="22"/>
+        <item sd="0" x="23"/>
+        <item sd="0" x="24"/>
+        <item sd="0" x="25"/>
+        <item sd="0" x="26"/>
+        <item sd="0" x="27"/>
+        <item sd="0" x="28"/>
+        <item sd="0" x="29"/>
+        <item sd="0" x="30"/>
+        <item sd="0" x="31"/>
+        <item sd="0" x="32"/>
+        <item sd="0" x="33"/>
+        <item sd="0" x="34"/>
+        <item sd="0" x="35"/>
+        <item sd="0" x="36"/>
+        <item sd="0" x="37"/>
+        <item sd="0" x="38"/>
+        <item sd="0" x="39"/>
+        <item sd="0" x="40"/>
+        <item sd="0" x="41"/>
+        <item sd="0" x="42"/>
+        <item sd="0" x="43"/>
+        <item sd="0" x="44"/>
+        <item sd="0" x="45"/>
+        <item sd="0" x="46"/>
+        <item sd="0" x="47"/>
+        <item sd="0" x="48"/>
+        <item sd="0" x="49"/>
+        <item sd="0" x="50"/>
+        <item sd="0" x="51"/>
+        <item sd="0" x="52"/>
+        <item sd="0" x="53"/>
+        <item sd="0" x="54"/>
+        <item sd="0" x="55"/>
+        <item sd="0" x="56"/>
+        <item sd="0" x="57"/>
+        <item sd="0" x="58"/>
+        <item sd="0" x="59"/>
+        <item sd="0" x="60"/>
+        <item sd="0" x="61"/>
+        <item sd="0" x="62"/>
+        <item sd="0" x="63"/>
+        <item sd="0" x="64"/>
+        <item sd="0" x="65"/>
+        <item sd="0" x="66"/>
+        <item sd="0" x="67"/>
+        <item sd="0" x="68"/>
+        <item sd="0" x="69"/>
+        <item sd="0" x="70"/>
+        <item sd="0" x="71"/>
+        <item sd="0" x="72"/>
+        <item sd="0" x="73"/>
+        <item sd="0" x="74"/>
+        <item sd="0" x="75"/>
+        <item sd="0" x="76"/>
+        <item sd="0" x="77"/>
+        <item sd="0" x="78"/>
+        <item sd="0" x="79"/>
+        <item sd="0" x="80"/>
+        <item sd="0" x="81"/>
+        <item sd="0" x="82"/>
+        <item sd="0" x="83"/>
+        <item sd="0" x="84"/>
+        <item sd="0" x="85"/>
+        <item sd="0" x="86"/>
+        <item sd="0" x="87"/>
+        <item sd="0" x="88"/>
+        <item sd="0" x="89"/>
+        <item sd="0" x="90"/>
+        <item sd="0" x="91"/>
+        <item sd="0" x="92"/>
+        <item sd="0" x="93"/>
+        <item sd="0" x="94"/>
+        <item sd="0" x="95"/>
+        <item sd="0" x="96"/>
+        <item sd="0" x="97"/>
+        <item sd="0" x="98"/>
+        <item sd="0" x="99"/>
+        <item sd="0" x="100"/>
+        <item sd="0" x="101"/>
+        <item sd="0" x="102"/>
+        <item sd="0" x="103"/>
+        <item sd="0" x="104"/>
+        <item sd="0" x="105"/>
+        <item sd="0" x="106"/>
+        <item sd="0" x="107"/>
+        <item sd="0" x="108"/>
+        <item sd="0" x="109"/>
+        <item sd="0" x="110"/>
+        <item sd="0" x="111"/>
+        <item sd="0" x="112"/>
+        <item sd="0" x="113"/>
+        <item sd="0" x="114"/>
+        <item sd="0" x="115"/>
+        <item sd="0" x="116"/>
+        <item sd="0" x="117"/>
+        <item sd="0" x="118"/>
+        <item sd="0" x="119"/>
+        <item sd="0" x="120"/>
+        <item sd="0" x="121"/>
+        <item sd="0" x="122"/>
+        <item sd="0" x="123"/>
+        <item sd="0" x="124"/>
+        <item sd="0" x="125"/>
+        <item sd="0" x="126"/>
+        <item sd="0" x="127"/>
+        <item sd="0" x="128"/>
+        <item sd="0" x="129"/>
+        <item sd="0" x="130"/>
+        <item sd="0" x="131"/>
+        <item sd="0" x="132"/>
+        <item sd="0" x="133"/>
+        <item sd="0" x="134"/>
+        <item sd="0" x="135"/>
+        <item sd="0" x="136"/>
+        <item sd="0" x="137"/>
+        <item sd="0" x="138"/>
+        <item sd="0" x="139"/>
+        <item sd="0" x="140"/>
+        <item sd="0" x="141"/>
+        <item sd="0" x="142"/>
+        <item sd="0" x="143"/>
+        <item sd="0" x="144"/>
+        <item sd="0" x="145"/>
+        <item sd="0" x="146"/>
+        <item sd="0" x="147"/>
+        <item sd="0" x="148"/>
+        <item sd="0" x="149"/>
+        <item sd="0" x="150"/>
+        <item sd="0" x="151"/>
+        <item sd="0" x="152"/>
+        <item sd="0" x="153"/>
+        <item sd="0" x="154"/>
+        <item sd="0" x="155"/>
+        <item sd="0" x="156"/>
+        <item sd="0" x="157"/>
+        <item sd="0" x="158"/>
+        <item sd="0" x="159"/>
+        <item sd="0" x="160"/>
+        <item sd="0" x="161"/>
+        <item sd="0" x="162"/>
+        <item sd="0" x="163"/>
+        <item sd="0" x="164"/>
+        <item sd="0" x="165"/>
+        <item sd="0" x="166"/>
+        <item sd="0" x="167"/>
+        <item sd="0" x="168"/>
+        <item sd="0" x="169"/>
+        <item sd="0" x="170"/>
+        <item sd="0" x="171"/>
+        <item sd="0" x="172"/>
+        <item sd="0" x="173"/>
+        <item sd="0" x="174"/>
+        <item sd="0" x="175"/>
+        <item sd="0" x="176"/>
+        <item sd="0" x="177"/>
+        <item sd="0" x="178"/>
+        <item sd="0" x="179"/>
+        <item sd="0" x="180"/>
+        <item sd="0" x="181"/>
+        <item sd="0" x="182"/>
+        <item sd="0" x="183"/>
+        <item sd="0" x="184"/>
+        <item sd="0" x="185"/>
+        <item sd="0" x="186"/>
+        <item sd="0" x="187"/>
+        <item sd="0" x="188"/>
+        <item sd="0" x="189"/>
+        <item sd="0" x="190"/>
+        <item sd="0" x="191"/>
+        <item sd="0" x="192"/>
+        <item sd="0" x="193"/>
+        <item sd="0" x="194"/>
+        <item sd="0" x="195"/>
+        <item sd="0" x="196"/>
+        <item sd="0" x="197"/>
+        <item sd="0" x="198"/>
+        <item sd="0" x="199"/>
+        <item sd="0" x="200"/>
+        <item sd="0" x="201"/>
+        <item sd="0" x="202"/>
+        <item sd="0" x="203"/>
+        <item sd="0" x="204"/>
+        <item sd="0" x="205"/>
+        <item sd="0" x="206"/>
+        <item sd="0" x="207"/>
+        <item sd="0" x="208"/>
+        <item sd="0" x="209"/>
+        <item sd="0" x="210"/>
+        <item sd="0" x="211"/>
+        <item sd="0" x="212"/>
+        <item sd="0" x="213"/>
+        <item sd="0" x="214"/>
+        <item sd="0" x="215"/>
+        <item sd="0" x="216"/>
+        <item sd="0" x="217"/>
+        <item sd="0" x="218"/>
+        <item sd="0" x="219"/>
+        <item sd="0" x="220"/>
+        <item sd="0" x="221"/>
+        <item sd="0" x="222"/>
+        <item sd="0" x="223"/>
+        <item sd="0" x="224"/>
+        <item sd="0" x="225"/>
+        <item sd="0" x="226"/>
+        <item sd="0" x="227"/>
+        <item sd="0" x="228"/>
+        <item sd="0" x="229"/>
+        <item sd="0" x="230"/>
+        <item sd="0" x="231"/>
+        <item sd="0" x="232"/>
+        <item sd="0" x="233"/>
+        <item sd="0" x="234"/>
+        <item sd="0" x="235"/>
+        <item sd="0" x="236"/>
+        <item sd="0" x="237"/>
+        <item sd="0" x="238"/>
+        <item sd="0" x="239"/>
+        <item sd="0" x="240"/>
+        <item sd="0" x="241"/>
+        <item sd="0" x="242"/>
+        <item sd="0" x="243"/>
+        <item sd="0" x="244"/>
+        <item sd="0" x="245"/>
+        <item sd="0" x="246"/>
+        <item sd="0" x="247"/>
+        <item sd="0" x="248"/>
+        <item sd="0" x="249"/>
+        <item sd="0" x="250"/>
+        <item sd="0" x="251"/>
+        <item sd="0" x="252"/>
+        <item sd="0" x="253"/>
+        <item sd="0" x="254"/>
+        <item sd="0" x="255"/>
+        <item sd="0" x="256"/>
+        <item sd="0" x="257"/>
+        <item sd="0" x="258"/>
+        <item sd="0" x="259"/>
+        <item sd="0" x="260"/>
+        <item sd="0" x="261"/>
+        <item sd="0" x="262"/>
+        <item sd="0" x="263"/>
+        <item sd="0" x="264"/>
+        <item sd="0" x="265"/>
+        <item sd="0" x="266"/>
+        <item sd="0" x="267"/>
+        <item sd="0" x="268"/>
+        <item sd="0" x="269"/>
+        <item sd="0" x="270"/>
+        <item sd="0" x="271"/>
+        <item sd="0" x="272"/>
+        <item sd="0" x="273"/>
+        <item sd="0" x="274"/>
+        <item sd="0" x="275"/>
+        <item sd="0" x="276"/>
+        <item sd="0" x="277"/>
+        <item sd="0" x="278"/>
+        <item sd="0" x="279"/>
+        <item sd="0" x="280"/>
+        <item sd="0" x="281"/>
+        <item sd="0" x="282"/>
+        <item sd="0" x="283"/>
+        <item sd="0" x="284"/>
+        <item sd="0" x="285"/>
+        <item sd="0" x="286"/>
+        <item sd="0" x="287"/>
+        <item sd="0" x="288"/>
+        <item sd="0" x="289"/>
+        <item sd="0" x="290"/>
+        <item sd="0" x="291"/>
+        <item sd="0" x="292"/>
+        <item sd="0" x="293"/>
+        <item sd="0" x="294"/>
+        <item sd="0" x="295"/>
+        <item sd="0" x="296"/>
+        <item sd="0" x="297"/>
+        <item sd="0" x="298"/>
+        <item sd="0" x="299"/>
+        <item sd="0" x="300"/>
+        <item sd="0" x="301"/>
+        <item sd="0" x="302"/>
+        <item sd="0" x="303"/>
+        <item sd="0" x="304"/>
+        <item sd="0" x="305"/>
+        <item sd="0" x="306"/>
+        <item sd="0" x="307"/>
+        <item sd="0" x="308"/>
+        <item sd="0" x="309"/>
+        <item sd="0" x="310"/>
+        <item sd="0" x="311"/>
+        <item sd="0" x="312"/>
+        <item sd="0" x="313"/>
+        <item sd="0" x="314"/>
+        <item sd="0" x="315"/>
+        <item sd="0" x="316"/>
+        <item sd="0" x="317"/>
+        <item sd="0" x="318"/>
+        <item sd="0" x="319"/>
+        <item sd="0" x="320"/>
+        <item sd="0" x="321"/>
+        <item sd="0" x="322"/>
+        <item sd="0" x="323"/>
+        <item sd="0" x="324"/>
+        <item sd="0" x="325"/>
+        <item sd="0" x="326"/>
+        <item sd="0" x="327"/>
+        <item sd="0" x="328"/>
+        <item sd="0" x="329"/>
+        <item sd="0" x="330"/>
+        <item sd="0" x="331"/>
+        <item sd="0" x="332"/>
+        <item sd="0" x="333"/>
+        <item sd="0" x="334"/>
+        <item sd="0" x="335"/>
+        <item sd="0" x="336"/>
+        <item sd="0" x="337"/>
+        <item sd="0" x="338"/>
+        <item sd="0" x="339"/>
+        <item sd="0" x="340"/>
+        <item sd="0" x="341"/>
+        <item sd="0" x="342"/>
+        <item sd="0" x="343"/>
+        <item sd="0" x="344"/>
+        <item sd="0" x="345"/>
+        <item sd="0" x="346"/>
+        <item sd="0" x="347"/>
+        <item sd="0" x="348"/>
+        <item sd="0" x="349"/>
+        <item sd="0" x="350"/>
+        <item sd="0" x="351"/>
+        <item sd="0" x="352"/>
+        <item sd="0" x="353"/>
+        <item sd="0" x="354"/>
+        <item sd="0" x="355"/>
+        <item sd="0" x="356"/>
+        <item sd="0" x="357"/>
+        <item sd="0" x="358"/>
+        <item sd="0" x="359"/>
+        <item sd="0" x="360"/>
+        <item sd="0" x="361"/>
+        <item sd="0" x="362"/>
+        <item sd="0" x="363"/>
+        <item sd="0" x="364"/>
+        <item sd="0" x="365"/>
+        <item sd="0" x="366"/>
+        <item sd="0" x="367"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="15">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="4">
+    <dataField name=" Абон плата" fld="5" baseField="0" baseItem="0"/>
+    <dataField name=" Поверх пакету" fld="6" baseField="0" baseItem="0"/>
+    <dataField name=" Додаткові послуги" fld="8" baseField="0" baseItem="0"/>
+    <dataField name=" Контент" fld="7" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="6">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{36747771-7420-429D-B312-2C2E4164FBDA}" name="PivotTable2" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="7">
+  <location ref="A17:G20" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="15">
+    <pivotField numFmtId="14" showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="339">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="6">
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="369">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item sd="0" x="14"/>
+        <item sd="0" x="15"/>
+        <item sd="0" x="16"/>
+        <item sd="0" x="17"/>
+        <item sd="0" x="18"/>
+        <item sd="0" x="19"/>
+        <item sd="0" x="20"/>
+        <item sd="0" x="21"/>
+        <item sd="0" x="22"/>
+        <item sd="0" x="23"/>
+        <item sd="0" x="24"/>
+        <item sd="0" x="25"/>
+        <item sd="0" x="26"/>
+        <item sd="0" x="27"/>
+        <item sd="0" x="28"/>
+        <item sd="0" x="29"/>
+        <item sd="0" x="30"/>
+        <item sd="0" x="31"/>
+        <item sd="0" x="32"/>
+        <item sd="0" x="33"/>
+        <item sd="0" x="34"/>
+        <item sd="0" x="35"/>
+        <item sd="0" x="36"/>
+        <item sd="0" x="37"/>
+        <item sd="0" x="38"/>
+        <item sd="0" x="39"/>
+        <item sd="0" x="40"/>
+        <item sd="0" x="41"/>
+        <item sd="0" x="42"/>
+        <item sd="0" x="43"/>
+        <item sd="0" x="44"/>
+        <item sd="0" x="45"/>
+        <item sd="0" x="46"/>
+        <item sd="0" x="47"/>
+        <item sd="0" x="48"/>
+        <item sd="0" x="49"/>
+        <item sd="0" x="50"/>
+        <item sd="0" x="51"/>
+        <item sd="0" x="52"/>
+        <item sd="0" x="53"/>
+        <item sd="0" x="54"/>
+        <item sd="0" x="55"/>
+        <item sd="0" x="56"/>
+        <item sd="0" x="57"/>
+        <item sd="0" x="58"/>
+        <item sd="0" x="59"/>
+        <item sd="0" x="60"/>
+        <item sd="0" x="61"/>
+        <item sd="0" x="62"/>
+        <item sd="0" x="63"/>
+        <item sd="0" x="64"/>
+        <item sd="0" x="65"/>
+        <item sd="0" x="66"/>
+        <item sd="0" x="67"/>
+        <item sd="0" x="68"/>
+        <item sd="0" x="69"/>
+        <item sd="0" x="70"/>
+        <item sd="0" x="71"/>
+        <item sd="0" x="72"/>
+        <item sd="0" x="73"/>
+        <item sd="0" x="74"/>
+        <item sd="0" x="75"/>
+        <item sd="0" x="76"/>
+        <item sd="0" x="77"/>
+        <item sd="0" x="78"/>
+        <item sd="0" x="79"/>
+        <item sd="0" x="80"/>
+        <item sd="0" x="81"/>
+        <item sd="0" x="82"/>
+        <item sd="0" x="83"/>
+        <item sd="0" x="84"/>
+        <item sd="0" x="85"/>
+        <item sd="0" x="86"/>
+        <item sd="0" x="87"/>
+        <item sd="0" x="88"/>
+        <item sd="0" x="89"/>
+        <item sd="0" x="90"/>
+        <item sd="0" x="91"/>
+        <item sd="0" x="92"/>
+        <item sd="0" x="93"/>
+        <item sd="0" x="94"/>
+        <item sd="0" x="95"/>
+        <item sd="0" x="96"/>
+        <item sd="0" x="97"/>
+        <item sd="0" x="98"/>
+        <item sd="0" x="99"/>
+        <item sd="0" x="100"/>
+        <item sd="0" x="101"/>
+        <item sd="0" x="102"/>
+        <item sd="0" x="103"/>
+        <item sd="0" x="104"/>
+        <item sd="0" x="105"/>
+        <item sd="0" x="106"/>
+        <item sd="0" x="107"/>
+        <item sd="0" x="108"/>
+        <item sd="0" x="109"/>
+        <item sd="0" x="110"/>
+        <item sd="0" x="111"/>
+        <item sd="0" x="112"/>
+        <item sd="0" x="113"/>
+        <item sd="0" x="114"/>
+        <item sd="0" x="115"/>
+        <item sd="0" x="116"/>
+        <item sd="0" x="117"/>
+        <item sd="0" x="118"/>
+        <item sd="0" x="119"/>
+        <item sd="0" x="120"/>
+        <item sd="0" x="121"/>
+        <item sd="0" x="122"/>
+        <item sd="0" x="123"/>
+        <item sd="0" x="124"/>
+        <item sd="0" x="125"/>
+        <item sd="0" x="126"/>
+        <item sd="0" x="127"/>
+        <item sd="0" x="128"/>
+        <item sd="0" x="129"/>
+        <item sd="0" x="130"/>
+        <item sd="0" x="131"/>
+        <item sd="0" x="132"/>
+        <item sd="0" x="133"/>
+        <item sd="0" x="134"/>
+        <item sd="0" x="135"/>
+        <item sd="0" x="136"/>
+        <item sd="0" x="137"/>
+        <item sd="0" x="138"/>
+        <item sd="0" x="139"/>
+        <item sd="0" x="140"/>
+        <item sd="0" x="141"/>
+        <item sd="0" x="142"/>
+        <item sd="0" x="143"/>
+        <item sd="0" x="144"/>
+        <item sd="0" x="145"/>
+        <item sd="0" x="146"/>
+        <item sd="0" x="147"/>
+        <item sd="0" x="148"/>
+        <item sd="0" x="149"/>
+        <item sd="0" x="150"/>
+        <item sd="0" x="151"/>
+        <item sd="0" x="152"/>
+        <item sd="0" x="153"/>
+        <item sd="0" x="154"/>
+        <item sd="0" x="155"/>
+        <item sd="0" x="156"/>
+        <item sd="0" x="157"/>
+        <item sd="0" x="158"/>
+        <item sd="0" x="159"/>
+        <item sd="0" x="160"/>
+        <item sd="0" x="161"/>
+        <item sd="0" x="162"/>
+        <item sd="0" x="163"/>
+        <item sd="0" x="164"/>
+        <item sd="0" x="165"/>
+        <item sd="0" x="166"/>
+        <item sd="0" x="167"/>
+        <item sd="0" x="168"/>
+        <item sd="0" x="169"/>
+        <item sd="0" x="170"/>
+        <item sd="0" x="171"/>
+        <item sd="0" x="172"/>
+        <item sd="0" x="173"/>
+        <item sd="0" x="174"/>
+        <item sd="0" x="175"/>
+        <item sd="0" x="176"/>
+        <item sd="0" x="177"/>
+        <item sd="0" x="178"/>
+        <item sd="0" x="179"/>
+        <item sd="0" x="180"/>
+        <item sd="0" x="181"/>
+        <item sd="0" x="182"/>
+        <item sd="0" x="183"/>
+        <item sd="0" x="184"/>
+        <item sd="0" x="185"/>
+        <item sd="0" x="186"/>
+        <item sd="0" x="187"/>
+        <item sd="0" x="188"/>
+        <item sd="0" x="189"/>
+        <item sd="0" x="190"/>
+        <item sd="0" x="191"/>
+        <item sd="0" x="192"/>
+        <item sd="0" x="193"/>
+        <item sd="0" x="194"/>
+        <item sd="0" x="195"/>
+        <item sd="0" x="196"/>
+        <item sd="0" x="197"/>
+        <item sd="0" x="198"/>
+        <item sd="0" x="199"/>
+        <item sd="0" x="200"/>
+        <item sd="0" x="201"/>
+        <item sd="0" x="202"/>
+        <item sd="0" x="203"/>
+        <item sd="0" x="204"/>
+        <item sd="0" x="205"/>
+        <item sd="0" x="206"/>
+        <item sd="0" x="207"/>
+        <item sd="0" x="208"/>
+        <item sd="0" x="209"/>
+        <item sd="0" x="210"/>
+        <item sd="0" x="211"/>
+        <item sd="0" x="212"/>
+        <item sd="0" x="213"/>
+        <item sd="0" x="214"/>
+        <item sd="0" x="215"/>
+        <item sd="0" x="216"/>
+        <item sd="0" x="217"/>
+        <item sd="0" x="218"/>
+        <item sd="0" x="219"/>
+        <item sd="0" x="220"/>
+        <item sd="0" x="221"/>
+        <item sd="0" x="222"/>
+        <item sd="0" x="223"/>
+        <item sd="0" x="224"/>
+        <item sd="0" x="225"/>
+        <item sd="0" x="226"/>
+        <item sd="0" x="227"/>
+        <item sd="0" x="228"/>
+        <item sd="0" x="229"/>
+        <item sd="0" x="230"/>
+        <item sd="0" x="231"/>
+        <item sd="0" x="232"/>
+        <item sd="0" x="233"/>
+        <item sd="0" x="234"/>
+        <item sd="0" x="235"/>
+        <item sd="0" x="236"/>
+        <item sd="0" x="237"/>
+        <item sd="0" x="238"/>
+        <item sd="0" x="239"/>
+        <item sd="0" x="240"/>
+        <item sd="0" x="241"/>
+        <item sd="0" x="242"/>
+        <item sd="0" x="243"/>
+        <item sd="0" x="244"/>
+        <item sd="0" x="245"/>
+        <item sd="0" x="246"/>
+        <item sd="0" x="247"/>
+        <item sd="0" x="248"/>
+        <item sd="0" x="249"/>
+        <item sd="0" x="250"/>
+        <item sd="0" x="251"/>
+        <item sd="0" x="252"/>
+        <item sd="0" x="253"/>
+        <item sd="0" x="254"/>
+        <item sd="0" x="255"/>
+        <item sd="0" x="256"/>
+        <item sd="0" x="257"/>
+        <item sd="0" x="258"/>
+        <item sd="0" x="259"/>
+        <item sd="0" x="260"/>
+        <item sd="0" x="261"/>
+        <item sd="0" x="262"/>
+        <item sd="0" x="263"/>
+        <item sd="0" x="264"/>
+        <item sd="0" x="265"/>
+        <item sd="0" x="266"/>
+        <item sd="0" x="267"/>
+        <item sd="0" x="268"/>
+        <item sd="0" x="269"/>
+        <item sd="0" x="270"/>
+        <item sd="0" x="271"/>
+        <item sd="0" x="272"/>
+        <item sd="0" x="273"/>
+        <item sd="0" x="274"/>
+        <item sd="0" x="275"/>
+        <item sd="0" x="276"/>
+        <item sd="0" x="277"/>
+        <item sd="0" x="278"/>
+        <item sd="0" x="279"/>
+        <item sd="0" x="280"/>
+        <item sd="0" x="281"/>
+        <item sd="0" x="282"/>
+        <item sd="0" x="283"/>
+        <item sd="0" x="284"/>
+        <item sd="0" x="285"/>
+        <item sd="0" x="286"/>
+        <item sd="0" x="287"/>
+        <item sd="0" x="288"/>
+        <item sd="0" x="289"/>
+        <item sd="0" x="290"/>
+        <item sd="0" x="291"/>
+        <item sd="0" x="292"/>
+        <item sd="0" x="293"/>
+        <item sd="0" x="294"/>
+        <item sd="0" x="295"/>
+        <item sd="0" x="296"/>
+        <item sd="0" x="297"/>
+        <item sd="0" x="298"/>
+        <item sd="0" x="299"/>
+        <item sd="0" x="300"/>
+        <item sd="0" x="301"/>
+        <item sd="0" x="302"/>
+        <item sd="0" x="303"/>
+        <item sd="0" x="304"/>
+        <item sd="0" x="305"/>
+        <item sd="0" x="306"/>
+        <item sd="0" x="307"/>
+        <item sd="0" x="308"/>
+        <item sd="0" x="309"/>
+        <item sd="0" x="310"/>
+        <item sd="0" x="311"/>
+        <item sd="0" x="312"/>
+        <item sd="0" x="313"/>
+        <item sd="0" x="314"/>
+        <item sd="0" x="315"/>
+        <item sd="0" x="316"/>
+        <item sd="0" x="317"/>
+        <item sd="0" x="318"/>
+        <item sd="0" x="319"/>
+        <item sd="0" x="320"/>
+        <item sd="0" x="321"/>
+        <item sd="0" x="322"/>
+        <item sd="0" x="323"/>
+        <item sd="0" x="324"/>
+        <item sd="0" x="325"/>
+        <item sd="0" x="326"/>
+        <item sd="0" x="327"/>
+        <item sd="0" x="328"/>
+        <item sd="0" x="329"/>
+        <item sd="0" x="330"/>
+        <item sd="0" x="331"/>
+        <item sd="0" x="332"/>
+        <item sd="0" x="333"/>
+        <item sd="0" x="334"/>
+        <item sd="0" x="335"/>
+        <item sd="0" x="336"/>
+        <item sd="0" x="337"/>
+        <item sd="0" x="338"/>
+        <item sd="0" x="339"/>
+        <item sd="0" x="340"/>
+        <item sd="0" x="341"/>
+        <item sd="0" x="342"/>
+        <item sd="0" x="343"/>
+        <item sd="0" x="344"/>
+        <item sd="0" x="345"/>
+        <item sd="0" x="346"/>
+        <item sd="0" x="347"/>
+        <item sd="0" x="348"/>
+        <item sd="0" x="349"/>
+        <item sd="0" x="350"/>
+        <item sd="0" x="351"/>
+        <item sd="0" x="352"/>
+        <item sd="0" x="353"/>
+        <item sd="0" x="354"/>
+        <item sd="0" x="355"/>
+        <item sd="0" x="356"/>
+        <item sd="0" x="357"/>
+        <item sd="0" x="358"/>
+        <item sd="0" x="359"/>
+        <item sd="0" x="360"/>
+        <item sd="0" x="361"/>
+        <item sd="0" x="362"/>
+        <item sd="0" x="363"/>
+        <item sd="0" x="364"/>
+        <item sd="0" x="365"/>
+        <item sd="0" x="366"/>
+        <item sd="0" x="367"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="15">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="-2"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Абоненти" fld="1" subtotal="count" baseField="4" baseItem="0"/>
+    <dataField name="Виручка" fld="9" baseField="4" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="12">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="11" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="12" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="13" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="14" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="15" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EE01CE1C-8284-4980-8B38-F1DB2C4D7A4A}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="27">
   <location ref="A3:C9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
@@ -20675,7 +22418,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1569B31D-ECC2-4E12-8F7B-D94B411179CF}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="12">
   <location ref="A57:D58" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="15">
@@ -21540,7 +23283,7 @@
     <dataField name=" Час розмов, год" fld="14" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="39">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -21549,7 +23292,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="38">
+    <format dxfId="0">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -21571,7 +23314,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C2DD5E48-2D75-40BE-BB6B-7E9E8031D7EC}" name="PivotTable5" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="23">
   <location ref="A45:D52" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="15">
@@ -22553,1864 +24296,6 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A19CA87A-92E3-46FB-84D7-FC9895FF6630}" name="PivotTable4" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A32:B36" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="15">
-    <pivotField numFmtId="14" showAll="0">
-      <items count="6">
-        <item x="4"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="339">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="137"/>
-        <item x="138"/>
-        <item x="139"/>
-        <item x="140"/>
-        <item x="141"/>
-        <item x="142"/>
-        <item x="143"/>
-        <item x="144"/>
-        <item x="145"/>
-        <item x="146"/>
-        <item x="147"/>
-        <item x="148"/>
-        <item x="149"/>
-        <item x="150"/>
-        <item x="151"/>
-        <item x="152"/>
-        <item x="153"/>
-        <item x="154"/>
-        <item x="155"/>
-        <item x="156"/>
-        <item x="157"/>
-        <item x="158"/>
-        <item x="159"/>
-        <item x="160"/>
-        <item x="161"/>
-        <item x="162"/>
-        <item x="163"/>
-        <item x="164"/>
-        <item x="165"/>
-        <item x="166"/>
-        <item x="167"/>
-        <item x="168"/>
-        <item x="169"/>
-        <item x="170"/>
-        <item x="171"/>
-        <item x="172"/>
-        <item x="173"/>
-        <item x="174"/>
-        <item x="175"/>
-        <item x="176"/>
-        <item x="177"/>
-        <item x="178"/>
-        <item x="179"/>
-        <item x="180"/>
-        <item x="181"/>
-        <item x="182"/>
-        <item x="183"/>
-        <item x="184"/>
-        <item x="185"/>
-        <item x="186"/>
-        <item x="187"/>
-        <item x="188"/>
-        <item x="189"/>
-        <item x="190"/>
-        <item x="191"/>
-        <item x="192"/>
-        <item x="193"/>
-        <item x="194"/>
-        <item x="195"/>
-        <item x="196"/>
-        <item x="197"/>
-        <item x="198"/>
-        <item x="199"/>
-        <item x="200"/>
-        <item x="201"/>
-        <item x="202"/>
-        <item x="203"/>
-        <item x="204"/>
-        <item x="205"/>
-        <item x="206"/>
-        <item x="207"/>
-        <item x="208"/>
-        <item x="209"/>
-        <item x="210"/>
-        <item x="211"/>
-        <item x="212"/>
-        <item x="213"/>
-        <item x="214"/>
-        <item x="215"/>
-        <item x="216"/>
-        <item x="217"/>
-        <item x="218"/>
-        <item x="219"/>
-        <item x="220"/>
-        <item x="221"/>
-        <item x="222"/>
-        <item x="223"/>
-        <item x="224"/>
-        <item x="225"/>
-        <item x="226"/>
-        <item x="227"/>
-        <item x="228"/>
-        <item x="229"/>
-        <item x="230"/>
-        <item x="231"/>
-        <item x="232"/>
-        <item x="233"/>
-        <item x="234"/>
-        <item x="235"/>
-        <item x="236"/>
-        <item x="237"/>
-        <item x="238"/>
-        <item x="239"/>
-        <item x="240"/>
-        <item x="241"/>
-        <item x="242"/>
-        <item x="243"/>
-        <item x="244"/>
-        <item x="245"/>
-        <item x="246"/>
-        <item x="247"/>
-        <item x="248"/>
-        <item x="249"/>
-        <item x="250"/>
-        <item x="251"/>
-        <item x="252"/>
-        <item x="253"/>
-        <item x="254"/>
-        <item x="255"/>
-        <item x="256"/>
-        <item x="257"/>
-        <item x="258"/>
-        <item x="259"/>
-        <item x="260"/>
-        <item x="261"/>
-        <item x="262"/>
-        <item x="263"/>
-        <item x="264"/>
-        <item x="265"/>
-        <item x="266"/>
-        <item x="267"/>
-        <item x="268"/>
-        <item x="269"/>
-        <item x="270"/>
-        <item x="271"/>
-        <item x="272"/>
-        <item x="273"/>
-        <item x="274"/>
-        <item x="275"/>
-        <item x="276"/>
-        <item x="277"/>
-        <item x="278"/>
-        <item x="279"/>
-        <item x="280"/>
-        <item x="281"/>
-        <item x="282"/>
-        <item x="283"/>
-        <item x="284"/>
-        <item x="285"/>
-        <item x="286"/>
-        <item x="287"/>
-        <item x="288"/>
-        <item x="289"/>
-        <item x="290"/>
-        <item x="291"/>
-        <item x="292"/>
-        <item x="293"/>
-        <item x="294"/>
-        <item x="295"/>
-        <item x="296"/>
-        <item x="297"/>
-        <item x="298"/>
-        <item x="299"/>
-        <item x="300"/>
-        <item x="301"/>
-        <item x="302"/>
-        <item x="303"/>
-        <item x="304"/>
-        <item x="305"/>
-        <item x="306"/>
-        <item x="307"/>
-        <item x="308"/>
-        <item x="309"/>
-        <item x="310"/>
-        <item x="311"/>
-        <item x="312"/>
-        <item x="313"/>
-        <item x="314"/>
-        <item x="315"/>
-        <item x="316"/>
-        <item x="317"/>
-        <item x="318"/>
-        <item x="319"/>
-        <item x="320"/>
-        <item x="321"/>
-        <item x="322"/>
-        <item x="323"/>
-        <item x="324"/>
-        <item x="325"/>
-        <item x="326"/>
-        <item x="327"/>
-        <item x="328"/>
-        <item x="329"/>
-        <item x="330"/>
-        <item x="331"/>
-        <item x="332"/>
-        <item x="333"/>
-        <item x="334"/>
-        <item x="335"/>
-        <item x="336"/>
-        <item x="337"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="369">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="8"/>
-        <item sd="0" x="9"/>
-        <item sd="0" x="10"/>
-        <item sd="0" x="11"/>
-        <item sd="0" x="12"/>
-        <item sd="0" x="13"/>
-        <item sd="0" x="14"/>
-        <item sd="0" x="15"/>
-        <item sd="0" x="16"/>
-        <item sd="0" x="17"/>
-        <item sd="0" x="18"/>
-        <item sd="0" x="19"/>
-        <item sd="0" x="20"/>
-        <item sd="0" x="21"/>
-        <item sd="0" x="22"/>
-        <item sd="0" x="23"/>
-        <item sd="0" x="24"/>
-        <item sd="0" x="25"/>
-        <item sd="0" x="26"/>
-        <item sd="0" x="27"/>
-        <item sd="0" x="28"/>
-        <item sd="0" x="29"/>
-        <item sd="0" x="30"/>
-        <item sd="0" x="31"/>
-        <item sd="0" x="32"/>
-        <item sd="0" x="33"/>
-        <item sd="0" x="34"/>
-        <item sd="0" x="35"/>
-        <item sd="0" x="36"/>
-        <item sd="0" x="37"/>
-        <item sd="0" x="38"/>
-        <item sd="0" x="39"/>
-        <item sd="0" x="40"/>
-        <item sd="0" x="41"/>
-        <item sd="0" x="42"/>
-        <item sd="0" x="43"/>
-        <item sd="0" x="44"/>
-        <item sd="0" x="45"/>
-        <item sd="0" x="46"/>
-        <item sd="0" x="47"/>
-        <item sd="0" x="48"/>
-        <item sd="0" x="49"/>
-        <item sd="0" x="50"/>
-        <item sd="0" x="51"/>
-        <item sd="0" x="52"/>
-        <item sd="0" x="53"/>
-        <item sd="0" x="54"/>
-        <item sd="0" x="55"/>
-        <item sd="0" x="56"/>
-        <item sd="0" x="57"/>
-        <item sd="0" x="58"/>
-        <item sd="0" x="59"/>
-        <item sd="0" x="60"/>
-        <item sd="0" x="61"/>
-        <item sd="0" x="62"/>
-        <item sd="0" x="63"/>
-        <item sd="0" x="64"/>
-        <item sd="0" x="65"/>
-        <item sd="0" x="66"/>
-        <item sd="0" x="67"/>
-        <item sd="0" x="68"/>
-        <item sd="0" x="69"/>
-        <item sd="0" x="70"/>
-        <item sd="0" x="71"/>
-        <item sd="0" x="72"/>
-        <item sd="0" x="73"/>
-        <item sd="0" x="74"/>
-        <item sd="0" x="75"/>
-        <item sd="0" x="76"/>
-        <item sd="0" x="77"/>
-        <item sd="0" x="78"/>
-        <item sd="0" x="79"/>
-        <item sd="0" x="80"/>
-        <item sd="0" x="81"/>
-        <item sd="0" x="82"/>
-        <item sd="0" x="83"/>
-        <item sd="0" x="84"/>
-        <item sd="0" x="85"/>
-        <item sd="0" x="86"/>
-        <item sd="0" x="87"/>
-        <item sd="0" x="88"/>
-        <item sd="0" x="89"/>
-        <item sd="0" x="90"/>
-        <item sd="0" x="91"/>
-        <item sd="0" x="92"/>
-        <item sd="0" x="93"/>
-        <item sd="0" x="94"/>
-        <item sd="0" x="95"/>
-        <item sd="0" x="96"/>
-        <item sd="0" x="97"/>
-        <item sd="0" x="98"/>
-        <item sd="0" x="99"/>
-        <item sd="0" x="100"/>
-        <item sd="0" x="101"/>
-        <item sd="0" x="102"/>
-        <item sd="0" x="103"/>
-        <item sd="0" x="104"/>
-        <item sd="0" x="105"/>
-        <item sd="0" x="106"/>
-        <item sd="0" x="107"/>
-        <item sd="0" x="108"/>
-        <item sd="0" x="109"/>
-        <item sd="0" x="110"/>
-        <item sd="0" x="111"/>
-        <item sd="0" x="112"/>
-        <item sd="0" x="113"/>
-        <item sd="0" x="114"/>
-        <item sd="0" x="115"/>
-        <item sd="0" x="116"/>
-        <item sd="0" x="117"/>
-        <item sd="0" x="118"/>
-        <item sd="0" x="119"/>
-        <item sd="0" x="120"/>
-        <item sd="0" x="121"/>
-        <item sd="0" x="122"/>
-        <item sd="0" x="123"/>
-        <item sd="0" x="124"/>
-        <item sd="0" x="125"/>
-        <item sd="0" x="126"/>
-        <item sd="0" x="127"/>
-        <item sd="0" x="128"/>
-        <item sd="0" x="129"/>
-        <item sd="0" x="130"/>
-        <item sd="0" x="131"/>
-        <item sd="0" x="132"/>
-        <item sd="0" x="133"/>
-        <item sd="0" x="134"/>
-        <item sd="0" x="135"/>
-        <item sd="0" x="136"/>
-        <item sd="0" x="137"/>
-        <item sd="0" x="138"/>
-        <item sd="0" x="139"/>
-        <item sd="0" x="140"/>
-        <item sd="0" x="141"/>
-        <item sd="0" x="142"/>
-        <item sd="0" x="143"/>
-        <item sd="0" x="144"/>
-        <item sd="0" x="145"/>
-        <item sd="0" x="146"/>
-        <item sd="0" x="147"/>
-        <item sd="0" x="148"/>
-        <item sd="0" x="149"/>
-        <item sd="0" x="150"/>
-        <item sd="0" x="151"/>
-        <item sd="0" x="152"/>
-        <item sd="0" x="153"/>
-        <item sd="0" x="154"/>
-        <item sd="0" x="155"/>
-        <item sd="0" x="156"/>
-        <item sd="0" x="157"/>
-        <item sd="0" x="158"/>
-        <item sd="0" x="159"/>
-        <item sd="0" x="160"/>
-        <item sd="0" x="161"/>
-        <item sd="0" x="162"/>
-        <item sd="0" x="163"/>
-        <item sd="0" x="164"/>
-        <item sd="0" x="165"/>
-        <item sd="0" x="166"/>
-        <item sd="0" x="167"/>
-        <item sd="0" x="168"/>
-        <item sd="0" x="169"/>
-        <item sd="0" x="170"/>
-        <item sd="0" x="171"/>
-        <item sd="0" x="172"/>
-        <item sd="0" x="173"/>
-        <item sd="0" x="174"/>
-        <item sd="0" x="175"/>
-        <item sd="0" x="176"/>
-        <item sd="0" x="177"/>
-        <item sd="0" x="178"/>
-        <item sd="0" x="179"/>
-        <item sd="0" x="180"/>
-        <item sd="0" x="181"/>
-        <item sd="0" x="182"/>
-        <item sd="0" x="183"/>
-        <item sd="0" x="184"/>
-        <item sd="0" x="185"/>
-        <item sd="0" x="186"/>
-        <item sd="0" x="187"/>
-        <item sd="0" x="188"/>
-        <item sd="0" x="189"/>
-        <item sd="0" x="190"/>
-        <item sd="0" x="191"/>
-        <item sd="0" x="192"/>
-        <item sd="0" x="193"/>
-        <item sd="0" x="194"/>
-        <item sd="0" x="195"/>
-        <item sd="0" x="196"/>
-        <item sd="0" x="197"/>
-        <item sd="0" x="198"/>
-        <item sd="0" x="199"/>
-        <item sd="0" x="200"/>
-        <item sd="0" x="201"/>
-        <item sd="0" x="202"/>
-        <item sd="0" x="203"/>
-        <item sd="0" x="204"/>
-        <item sd="0" x="205"/>
-        <item sd="0" x="206"/>
-        <item sd="0" x="207"/>
-        <item sd="0" x="208"/>
-        <item sd="0" x="209"/>
-        <item sd="0" x="210"/>
-        <item sd="0" x="211"/>
-        <item sd="0" x="212"/>
-        <item sd="0" x="213"/>
-        <item sd="0" x="214"/>
-        <item sd="0" x="215"/>
-        <item sd="0" x="216"/>
-        <item sd="0" x="217"/>
-        <item sd="0" x="218"/>
-        <item sd="0" x="219"/>
-        <item sd="0" x="220"/>
-        <item sd="0" x="221"/>
-        <item sd="0" x="222"/>
-        <item sd="0" x="223"/>
-        <item sd="0" x="224"/>
-        <item sd="0" x="225"/>
-        <item sd="0" x="226"/>
-        <item sd="0" x="227"/>
-        <item sd="0" x="228"/>
-        <item sd="0" x="229"/>
-        <item sd="0" x="230"/>
-        <item sd="0" x="231"/>
-        <item sd="0" x="232"/>
-        <item sd="0" x="233"/>
-        <item sd="0" x="234"/>
-        <item sd="0" x="235"/>
-        <item sd="0" x="236"/>
-        <item sd="0" x="237"/>
-        <item sd="0" x="238"/>
-        <item sd="0" x="239"/>
-        <item sd="0" x="240"/>
-        <item sd="0" x="241"/>
-        <item sd="0" x="242"/>
-        <item sd="0" x="243"/>
-        <item sd="0" x="244"/>
-        <item sd="0" x="245"/>
-        <item sd="0" x="246"/>
-        <item sd="0" x="247"/>
-        <item sd="0" x="248"/>
-        <item sd="0" x="249"/>
-        <item sd="0" x="250"/>
-        <item sd="0" x="251"/>
-        <item sd="0" x="252"/>
-        <item sd="0" x="253"/>
-        <item sd="0" x="254"/>
-        <item sd="0" x="255"/>
-        <item sd="0" x="256"/>
-        <item sd="0" x="257"/>
-        <item sd="0" x="258"/>
-        <item sd="0" x="259"/>
-        <item sd="0" x="260"/>
-        <item sd="0" x="261"/>
-        <item sd="0" x="262"/>
-        <item sd="0" x="263"/>
-        <item sd="0" x="264"/>
-        <item sd="0" x="265"/>
-        <item sd="0" x="266"/>
-        <item sd="0" x="267"/>
-        <item sd="0" x="268"/>
-        <item sd="0" x="269"/>
-        <item sd="0" x="270"/>
-        <item sd="0" x="271"/>
-        <item sd="0" x="272"/>
-        <item sd="0" x="273"/>
-        <item sd="0" x="274"/>
-        <item sd="0" x="275"/>
-        <item sd="0" x="276"/>
-        <item sd="0" x="277"/>
-        <item sd="0" x="278"/>
-        <item sd="0" x="279"/>
-        <item sd="0" x="280"/>
-        <item sd="0" x="281"/>
-        <item sd="0" x="282"/>
-        <item sd="0" x="283"/>
-        <item sd="0" x="284"/>
-        <item sd="0" x="285"/>
-        <item sd="0" x="286"/>
-        <item sd="0" x="287"/>
-        <item sd="0" x="288"/>
-        <item sd="0" x="289"/>
-        <item sd="0" x="290"/>
-        <item sd="0" x="291"/>
-        <item sd="0" x="292"/>
-        <item sd="0" x="293"/>
-        <item sd="0" x="294"/>
-        <item sd="0" x="295"/>
-        <item sd="0" x="296"/>
-        <item sd="0" x="297"/>
-        <item sd="0" x="298"/>
-        <item sd="0" x="299"/>
-        <item sd="0" x="300"/>
-        <item sd="0" x="301"/>
-        <item sd="0" x="302"/>
-        <item sd="0" x="303"/>
-        <item sd="0" x="304"/>
-        <item sd="0" x="305"/>
-        <item sd="0" x="306"/>
-        <item sd="0" x="307"/>
-        <item sd="0" x="308"/>
-        <item sd="0" x="309"/>
-        <item sd="0" x="310"/>
-        <item sd="0" x="311"/>
-        <item sd="0" x="312"/>
-        <item sd="0" x="313"/>
-        <item sd="0" x="314"/>
-        <item sd="0" x="315"/>
-        <item sd="0" x="316"/>
-        <item sd="0" x="317"/>
-        <item sd="0" x="318"/>
-        <item sd="0" x="319"/>
-        <item sd="0" x="320"/>
-        <item sd="0" x="321"/>
-        <item sd="0" x="322"/>
-        <item sd="0" x="323"/>
-        <item sd="0" x="324"/>
-        <item sd="0" x="325"/>
-        <item sd="0" x="326"/>
-        <item sd="0" x="327"/>
-        <item sd="0" x="328"/>
-        <item sd="0" x="329"/>
-        <item sd="0" x="330"/>
-        <item sd="0" x="331"/>
-        <item sd="0" x="332"/>
-        <item sd="0" x="333"/>
-        <item sd="0" x="334"/>
-        <item sd="0" x="335"/>
-        <item sd="0" x="336"/>
-        <item sd="0" x="337"/>
-        <item sd="0" x="338"/>
-        <item sd="0" x="339"/>
-        <item sd="0" x="340"/>
-        <item sd="0" x="341"/>
-        <item sd="0" x="342"/>
-        <item sd="0" x="343"/>
-        <item sd="0" x="344"/>
-        <item sd="0" x="345"/>
-        <item sd="0" x="346"/>
-        <item sd="0" x="347"/>
-        <item sd="0" x="348"/>
-        <item sd="0" x="349"/>
-        <item sd="0" x="350"/>
-        <item sd="0" x="351"/>
-        <item sd="0" x="352"/>
-        <item sd="0" x="353"/>
-        <item sd="0" x="354"/>
-        <item sd="0" x="355"/>
-        <item sd="0" x="356"/>
-        <item sd="0" x="357"/>
-        <item sd="0" x="358"/>
-        <item sd="0" x="359"/>
-        <item sd="0" x="360"/>
-        <item sd="0" x="361"/>
-        <item sd="0" x="362"/>
-        <item sd="0" x="363"/>
-        <item sd="0" x="364"/>
-        <item sd="0" x="365"/>
-        <item sd="0" x="366"/>
-        <item sd="0" x="367"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="15">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="8"/>
-        <item sd="0" x="9"/>
-        <item sd="0" x="10"/>
-        <item sd="0" x="11"/>
-        <item sd="0" x="12"/>
-        <item sd="0" x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="4">
-    <dataField name=" Абон плата" fld="5" baseField="0" baseItem="0"/>
-    <dataField name=" Поверх пакету" fld="6" baseField="0" baseItem="0"/>
-    <dataField name=" Додаткові послуги" fld="8" baseField="0" baseItem="0"/>
-    <dataField name=" Контент" fld="7" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="6">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{36747771-7420-429D-B312-2C2E4164FBDA}" name="PivotTable2" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0" chartFormat="7">
-  <location ref="A17:G20" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="15">
-    <pivotField numFmtId="14" showAll="0">
-      <items count="6">
-        <item x="4"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0">
-      <items count="339">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="137"/>
-        <item x="138"/>
-        <item x="139"/>
-        <item x="140"/>
-        <item x="141"/>
-        <item x="142"/>
-        <item x="143"/>
-        <item x="144"/>
-        <item x="145"/>
-        <item x="146"/>
-        <item x="147"/>
-        <item x="148"/>
-        <item x="149"/>
-        <item x="150"/>
-        <item x="151"/>
-        <item x="152"/>
-        <item x="153"/>
-        <item x="154"/>
-        <item x="155"/>
-        <item x="156"/>
-        <item x="157"/>
-        <item x="158"/>
-        <item x="159"/>
-        <item x="160"/>
-        <item x="161"/>
-        <item x="162"/>
-        <item x="163"/>
-        <item x="164"/>
-        <item x="165"/>
-        <item x="166"/>
-        <item x="167"/>
-        <item x="168"/>
-        <item x="169"/>
-        <item x="170"/>
-        <item x="171"/>
-        <item x="172"/>
-        <item x="173"/>
-        <item x="174"/>
-        <item x="175"/>
-        <item x="176"/>
-        <item x="177"/>
-        <item x="178"/>
-        <item x="179"/>
-        <item x="180"/>
-        <item x="181"/>
-        <item x="182"/>
-        <item x="183"/>
-        <item x="184"/>
-        <item x="185"/>
-        <item x="186"/>
-        <item x="187"/>
-        <item x="188"/>
-        <item x="189"/>
-        <item x="190"/>
-        <item x="191"/>
-        <item x="192"/>
-        <item x="193"/>
-        <item x="194"/>
-        <item x="195"/>
-        <item x="196"/>
-        <item x="197"/>
-        <item x="198"/>
-        <item x="199"/>
-        <item x="200"/>
-        <item x="201"/>
-        <item x="202"/>
-        <item x="203"/>
-        <item x="204"/>
-        <item x="205"/>
-        <item x="206"/>
-        <item x="207"/>
-        <item x="208"/>
-        <item x="209"/>
-        <item x="210"/>
-        <item x="211"/>
-        <item x="212"/>
-        <item x="213"/>
-        <item x="214"/>
-        <item x="215"/>
-        <item x="216"/>
-        <item x="217"/>
-        <item x="218"/>
-        <item x="219"/>
-        <item x="220"/>
-        <item x="221"/>
-        <item x="222"/>
-        <item x="223"/>
-        <item x="224"/>
-        <item x="225"/>
-        <item x="226"/>
-        <item x="227"/>
-        <item x="228"/>
-        <item x="229"/>
-        <item x="230"/>
-        <item x="231"/>
-        <item x="232"/>
-        <item x="233"/>
-        <item x="234"/>
-        <item x="235"/>
-        <item x="236"/>
-        <item x="237"/>
-        <item x="238"/>
-        <item x="239"/>
-        <item x="240"/>
-        <item x="241"/>
-        <item x="242"/>
-        <item x="243"/>
-        <item x="244"/>
-        <item x="245"/>
-        <item x="246"/>
-        <item x="247"/>
-        <item x="248"/>
-        <item x="249"/>
-        <item x="250"/>
-        <item x="251"/>
-        <item x="252"/>
-        <item x="253"/>
-        <item x="254"/>
-        <item x="255"/>
-        <item x="256"/>
-        <item x="257"/>
-        <item x="258"/>
-        <item x="259"/>
-        <item x="260"/>
-        <item x="261"/>
-        <item x="262"/>
-        <item x="263"/>
-        <item x="264"/>
-        <item x="265"/>
-        <item x="266"/>
-        <item x="267"/>
-        <item x="268"/>
-        <item x="269"/>
-        <item x="270"/>
-        <item x="271"/>
-        <item x="272"/>
-        <item x="273"/>
-        <item x="274"/>
-        <item x="275"/>
-        <item x="276"/>
-        <item x="277"/>
-        <item x="278"/>
-        <item x="279"/>
-        <item x="280"/>
-        <item x="281"/>
-        <item x="282"/>
-        <item x="283"/>
-        <item x="284"/>
-        <item x="285"/>
-        <item x="286"/>
-        <item x="287"/>
-        <item x="288"/>
-        <item x="289"/>
-        <item x="290"/>
-        <item x="291"/>
-        <item x="292"/>
-        <item x="293"/>
-        <item x="294"/>
-        <item x="295"/>
-        <item x="296"/>
-        <item x="297"/>
-        <item x="298"/>
-        <item x="299"/>
-        <item x="300"/>
-        <item x="301"/>
-        <item x="302"/>
-        <item x="303"/>
-        <item x="304"/>
-        <item x="305"/>
-        <item x="306"/>
-        <item x="307"/>
-        <item x="308"/>
-        <item x="309"/>
-        <item x="310"/>
-        <item x="311"/>
-        <item x="312"/>
-        <item x="313"/>
-        <item x="314"/>
-        <item x="315"/>
-        <item x="316"/>
-        <item x="317"/>
-        <item x="318"/>
-        <item x="319"/>
-        <item x="320"/>
-        <item x="321"/>
-        <item x="322"/>
-        <item x="323"/>
-        <item x="324"/>
-        <item x="325"/>
-        <item x="326"/>
-        <item x="327"/>
-        <item x="328"/>
-        <item x="329"/>
-        <item x="330"/>
-        <item x="331"/>
-        <item x="332"/>
-        <item x="333"/>
-        <item x="334"/>
-        <item x="335"/>
-        <item x="336"/>
-        <item x="337"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="8">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="6">
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="369">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="8"/>
-        <item sd="0" x="9"/>
-        <item sd="0" x="10"/>
-        <item sd="0" x="11"/>
-        <item sd="0" x="12"/>
-        <item sd="0" x="13"/>
-        <item sd="0" x="14"/>
-        <item sd="0" x="15"/>
-        <item sd="0" x="16"/>
-        <item sd="0" x="17"/>
-        <item sd="0" x="18"/>
-        <item sd="0" x="19"/>
-        <item sd="0" x="20"/>
-        <item sd="0" x="21"/>
-        <item sd="0" x="22"/>
-        <item sd="0" x="23"/>
-        <item sd="0" x="24"/>
-        <item sd="0" x="25"/>
-        <item sd="0" x="26"/>
-        <item sd="0" x="27"/>
-        <item sd="0" x="28"/>
-        <item sd="0" x="29"/>
-        <item sd="0" x="30"/>
-        <item sd="0" x="31"/>
-        <item sd="0" x="32"/>
-        <item sd="0" x="33"/>
-        <item sd="0" x="34"/>
-        <item sd="0" x="35"/>
-        <item sd="0" x="36"/>
-        <item sd="0" x="37"/>
-        <item sd="0" x="38"/>
-        <item sd="0" x="39"/>
-        <item sd="0" x="40"/>
-        <item sd="0" x="41"/>
-        <item sd="0" x="42"/>
-        <item sd="0" x="43"/>
-        <item sd="0" x="44"/>
-        <item sd="0" x="45"/>
-        <item sd="0" x="46"/>
-        <item sd="0" x="47"/>
-        <item sd="0" x="48"/>
-        <item sd="0" x="49"/>
-        <item sd="0" x="50"/>
-        <item sd="0" x="51"/>
-        <item sd="0" x="52"/>
-        <item sd="0" x="53"/>
-        <item sd="0" x="54"/>
-        <item sd="0" x="55"/>
-        <item sd="0" x="56"/>
-        <item sd="0" x="57"/>
-        <item sd="0" x="58"/>
-        <item sd="0" x="59"/>
-        <item sd="0" x="60"/>
-        <item sd="0" x="61"/>
-        <item sd="0" x="62"/>
-        <item sd="0" x="63"/>
-        <item sd="0" x="64"/>
-        <item sd="0" x="65"/>
-        <item sd="0" x="66"/>
-        <item sd="0" x="67"/>
-        <item sd="0" x="68"/>
-        <item sd="0" x="69"/>
-        <item sd="0" x="70"/>
-        <item sd="0" x="71"/>
-        <item sd="0" x="72"/>
-        <item sd="0" x="73"/>
-        <item sd="0" x="74"/>
-        <item sd="0" x="75"/>
-        <item sd="0" x="76"/>
-        <item sd="0" x="77"/>
-        <item sd="0" x="78"/>
-        <item sd="0" x="79"/>
-        <item sd="0" x="80"/>
-        <item sd="0" x="81"/>
-        <item sd="0" x="82"/>
-        <item sd="0" x="83"/>
-        <item sd="0" x="84"/>
-        <item sd="0" x="85"/>
-        <item sd="0" x="86"/>
-        <item sd="0" x="87"/>
-        <item sd="0" x="88"/>
-        <item sd="0" x="89"/>
-        <item sd="0" x="90"/>
-        <item sd="0" x="91"/>
-        <item sd="0" x="92"/>
-        <item sd="0" x="93"/>
-        <item sd="0" x="94"/>
-        <item sd="0" x="95"/>
-        <item sd="0" x="96"/>
-        <item sd="0" x="97"/>
-        <item sd="0" x="98"/>
-        <item sd="0" x="99"/>
-        <item sd="0" x="100"/>
-        <item sd="0" x="101"/>
-        <item sd="0" x="102"/>
-        <item sd="0" x="103"/>
-        <item sd="0" x="104"/>
-        <item sd="0" x="105"/>
-        <item sd="0" x="106"/>
-        <item sd="0" x="107"/>
-        <item sd="0" x="108"/>
-        <item sd="0" x="109"/>
-        <item sd="0" x="110"/>
-        <item sd="0" x="111"/>
-        <item sd="0" x="112"/>
-        <item sd="0" x="113"/>
-        <item sd="0" x="114"/>
-        <item sd="0" x="115"/>
-        <item sd="0" x="116"/>
-        <item sd="0" x="117"/>
-        <item sd="0" x="118"/>
-        <item sd="0" x="119"/>
-        <item sd="0" x="120"/>
-        <item sd="0" x="121"/>
-        <item sd="0" x="122"/>
-        <item sd="0" x="123"/>
-        <item sd="0" x="124"/>
-        <item sd="0" x="125"/>
-        <item sd="0" x="126"/>
-        <item sd="0" x="127"/>
-        <item sd="0" x="128"/>
-        <item sd="0" x="129"/>
-        <item sd="0" x="130"/>
-        <item sd="0" x="131"/>
-        <item sd="0" x="132"/>
-        <item sd="0" x="133"/>
-        <item sd="0" x="134"/>
-        <item sd="0" x="135"/>
-        <item sd="0" x="136"/>
-        <item sd="0" x="137"/>
-        <item sd="0" x="138"/>
-        <item sd="0" x="139"/>
-        <item sd="0" x="140"/>
-        <item sd="0" x="141"/>
-        <item sd="0" x="142"/>
-        <item sd="0" x="143"/>
-        <item sd="0" x="144"/>
-        <item sd="0" x="145"/>
-        <item sd="0" x="146"/>
-        <item sd="0" x="147"/>
-        <item sd="0" x="148"/>
-        <item sd="0" x="149"/>
-        <item sd="0" x="150"/>
-        <item sd="0" x="151"/>
-        <item sd="0" x="152"/>
-        <item sd="0" x="153"/>
-        <item sd="0" x="154"/>
-        <item sd="0" x="155"/>
-        <item sd="0" x="156"/>
-        <item sd="0" x="157"/>
-        <item sd="0" x="158"/>
-        <item sd="0" x="159"/>
-        <item sd="0" x="160"/>
-        <item sd="0" x="161"/>
-        <item sd="0" x="162"/>
-        <item sd="0" x="163"/>
-        <item sd="0" x="164"/>
-        <item sd="0" x="165"/>
-        <item sd="0" x="166"/>
-        <item sd="0" x="167"/>
-        <item sd="0" x="168"/>
-        <item sd="0" x="169"/>
-        <item sd="0" x="170"/>
-        <item sd="0" x="171"/>
-        <item sd="0" x="172"/>
-        <item sd="0" x="173"/>
-        <item sd="0" x="174"/>
-        <item sd="0" x="175"/>
-        <item sd="0" x="176"/>
-        <item sd="0" x="177"/>
-        <item sd="0" x="178"/>
-        <item sd="0" x="179"/>
-        <item sd="0" x="180"/>
-        <item sd="0" x="181"/>
-        <item sd="0" x="182"/>
-        <item sd="0" x="183"/>
-        <item sd="0" x="184"/>
-        <item sd="0" x="185"/>
-        <item sd="0" x="186"/>
-        <item sd="0" x="187"/>
-        <item sd="0" x="188"/>
-        <item sd="0" x="189"/>
-        <item sd="0" x="190"/>
-        <item sd="0" x="191"/>
-        <item sd="0" x="192"/>
-        <item sd="0" x="193"/>
-        <item sd="0" x="194"/>
-        <item sd="0" x="195"/>
-        <item sd="0" x="196"/>
-        <item sd="0" x="197"/>
-        <item sd="0" x="198"/>
-        <item sd="0" x="199"/>
-        <item sd="0" x="200"/>
-        <item sd="0" x="201"/>
-        <item sd="0" x="202"/>
-        <item sd="0" x="203"/>
-        <item sd="0" x="204"/>
-        <item sd="0" x="205"/>
-        <item sd="0" x="206"/>
-        <item sd="0" x="207"/>
-        <item sd="0" x="208"/>
-        <item sd="0" x="209"/>
-        <item sd="0" x="210"/>
-        <item sd="0" x="211"/>
-        <item sd="0" x="212"/>
-        <item sd="0" x="213"/>
-        <item sd="0" x="214"/>
-        <item sd="0" x="215"/>
-        <item sd="0" x="216"/>
-        <item sd="0" x="217"/>
-        <item sd="0" x="218"/>
-        <item sd="0" x="219"/>
-        <item sd="0" x="220"/>
-        <item sd="0" x="221"/>
-        <item sd="0" x="222"/>
-        <item sd="0" x="223"/>
-        <item sd="0" x="224"/>
-        <item sd="0" x="225"/>
-        <item sd="0" x="226"/>
-        <item sd="0" x="227"/>
-        <item sd="0" x="228"/>
-        <item sd="0" x="229"/>
-        <item sd="0" x="230"/>
-        <item sd="0" x="231"/>
-        <item sd="0" x="232"/>
-        <item sd="0" x="233"/>
-        <item sd="0" x="234"/>
-        <item sd="0" x="235"/>
-        <item sd="0" x="236"/>
-        <item sd="0" x="237"/>
-        <item sd="0" x="238"/>
-        <item sd="0" x="239"/>
-        <item sd="0" x="240"/>
-        <item sd="0" x="241"/>
-        <item sd="0" x="242"/>
-        <item sd="0" x="243"/>
-        <item sd="0" x="244"/>
-        <item sd="0" x="245"/>
-        <item sd="0" x="246"/>
-        <item sd="0" x="247"/>
-        <item sd="0" x="248"/>
-        <item sd="0" x="249"/>
-        <item sd="0" x="250"/>
-        <item sd="0" x="251"/>
-        <item sd="0" x="252"/>
-        <item sd="0" x="253"/>
-        <item sd="0" x="254"/>
-        <item sd="0" x="255"/>
-        <item sd="0" x="256"/>
-        <item sd="0" x="257"/>
-        <item sd="0" x="258"/>
-        <item sd="0" x="259"/>
-        <item sd="0" x="260"/>
-        <item sd="0" x="261"/>
-        <item sd="0" x="262"/>
-        <item sd="0" x="263"/>
-        <item sd="0" x="264"/>
-        <item sd="0" x="265"/>
-        <item sd="0" x="266"/>
-        <item sd="0" x="267"/>
-        <item sd="0" x="268"/>
-        <item sd="0" x="269"/>
-        <item sd="0" x="270"/>
-        <item sd="0" x="271"/>
-        <item sd="0" x="272"/>
-        <item sd="0" x="273"/>
-        <item sd="0" x="274"/>
-        <item sd="0" x="275"/>
-        <item sd="0" x="276"/>
-        <item sd="0" x="277"/>
-        <item sd="0" x="278"/>
-        <item sd="0" x="279"/>
-        <item sd="0" x="280"/>
-        <item sd="0" x="281"/>
-        <item sd="0" x="282"/>
-        <item sd="0" x="283"/>
-        <item sd="0" x="284"/>
-        <item sd="0" x="285"/>
-        <item sd="0" x="286"/>
-        <item sd="0" x="287"/>
-        <item sd="0" x="288"/>
-        <item sd="0" x="289"/>
-        <item sd="0" x="290"/>
-        <item sd="0" x="291"/>
-        <item sd="0" x="292"/>
-        <item sd="0" x="293"/>
-        <item sd="0" x="294"/>
-        <item sd="0" x="295"/>
-        <item sd="0" x="296"/>
-        <item sd="0" x="297"/>
-        <item sd="0" x="298"/>
-        <item sd="0" x="299"/>
-        <item sd="0" x="300"/>
-        <item sd="0" x="301"/>
-        <item sd="0" x="302"/>
-        <item sd="0" x="303"/>
-        <item sd="0" x="304"/>
-        <item sd="0" x="305"/>
-        <item sd="0" x="306"/>
-        <item sd="0" x="307"/>
-        <item sd="0" x="308"/>
-        <item sd="0" x="309"/>
-        <item sd="0" x="310"/>
-        <item sd="0" x="311"/>
-        <item sd="0" x="312"/>
-        <item sd="0" x="313"/>
-        <item sd="0" x="314"/>
-        <item sd="0" x="315"/>
-        <item sd="0" x="316"/>
-        <item sd="0" x="317"/>
-        <item sd="0" x="318"/>
-        <item sd="0" x="319"/>
-        <item sd="0" x="320"/>
-        <item sd="0" x="321"/>
-        <item sd="0" x="322"/>
-        <item sd="0" x="323"/>
-        <item sd="0" x="324"/>
-        <item sd="0" x="325"/>
-        <item sd="0" x="326"/>
-        <item sd="0" x="327"/>
-        <item sd="0" x="328"/>
-        <item sd="0" x="329"/>
-        <item sd="0" x="330"/>
-        <item sd="0" x="331"/>
-        <item sd="0" x="332"/>
-        <item sd="0" x="333"/>
-        <item sd="0" x="334"/>
-        <item sd="0" x="335"/>
-        <item sd="0" x="336"/>
-        <item sd="0" x="337"/>
-        <item sd="0" x="338"/>
-        <item sd="0" x="339"/>
-        <item sd="0" x="340"/>
-        <item sd="0" x="341"/>
-        <item sd="0" x="342"/>
-        <item sd="0" x="343"/>
-        <item sd="0" x="344"/>
-        <item sd="0" x="345"/>
-        <item sd="0" x="346"/>
-        <item sd="0" x="347"/>
-        <item sd="0" x="348"/>
-        <item sd="0" x="349"/>
-        <item sd="0" x="350"/>
-        <item sd="0" x="351"/>
-        <item sd="0" x="352"/>
-        <item sd="0" x="353"/>
-        <item sd="0" x="354"/>
-        <item sd="0" x="355"/>
-        <item sd="0" x="356"/>
-        <item sd="0" x="357"/>
-        <item sd="0" x="358"/>
-        <item sd="0" x="359"/>
-        <item sd="0" x="360"/>
-        <item sd="0" x="361"/>
-        <item sd="0" x="362"/>
-        <item sd="0" x="363"/>
-        <item sd="0" x="364"/>
-        <item sd="0" x="365"/>
-        <item sd="0" x="366"/>
-        <item sd="0" x="367"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="15">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="8"/>
-        <item sd="0" x="9"/>
-        <item sd="0" x="10"/>
-        <item sd="0" x="11"/>
-        <item sd="0" x="12"/>
-        <item sd="0" x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="-2"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="4"/>
-  </colFields>
-  <colItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="Абоненти" fld="1" subtotal="count" baseField="4" baseItem="0"/>
-    <dataField name="Виручка" fld="9" baseField="4" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="12">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="11" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="12" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="13" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="14" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="5" format="15" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Стать" xr10:uid="{666AB71E-5394-465F-BB45-F35CE5778399}" sourceName="Стать">
   <pivotTables>
@@ -24811,14 +24696,14 @@
   <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="3:18" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C1" s="6" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -24853,7 +24738,7 @@
     </row>
     <row r="7" spans="3:18" ht="20" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C7" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -24862,7 +24747,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="K7" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
@@ -24907,7 +24792,7 @@
     </row>
     <row r="19" spans="1:18" ht="20" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C19" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -24916,7 +24801,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="K19" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
@@ -25036,7 +24921,7 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
@@ -38276,10 +38161,10 @@
       <c r="A4" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4">
         <v>34155</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4">
         <v>550.88709677419354</v>
       </c>
     </row>
@@ -38287,10 +38172,10 @@
       <c r="A5" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5">
         <v>42256</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5">
         <v>603.65714285714284</v>
       </c>
     </row>
@@ -38298,10 +38183,10 @@
       <c r="A6" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6">
         <v>45448</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6">
         <v>668.35294117647061</v>
       </c>
     </row>
@@ -38309,10 +38194,10 @@
       <c r="A7" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7">
         <v>45533</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7">
         <v>659.89855072463763</v>
       </c>
     </row>
@@ -38320,10 +38205,10 @@
       <c r="A8" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8">
         <v>46138</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8">
         <v>668.66666666666663</v>
       </c>
     </row>
@@ -38331,10 +38216,10 @@
       <c r="A9" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9">
         <v>213530</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9">
         <v>631.74556213017752</v>
       </c>
     </row>
@@ -38370,22 +38255,22 @@
       <c r="A19" t="s">
         <v>368</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19">
         <v>76</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19">
         <v>117</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19">
         <v>76</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19">
         <v>18</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19">
         <v>51</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19">
         <v>338</v>
       </c>
     </row>
@@ -38393,22 +38278,22 @@
       <c r="A20" t="s">
         <v>369</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20">
         <v>66381</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20">
         <v>63855</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20">
         <v>29235</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20">
         <v>39504</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20">
         <v>14555</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20">
         <v>213530</v>
       </c>
     </row>
@@ -38421,15 +38306,15 @@
       <c r="A33" t="s">
         <v>372</v>
       </c>
-      <c r="B33" s="13">
+      <c r="B33">
         <v>165720</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>385</v>
-      </c>
-      <c r="B34" s="13">
+        <v>384</v>
+      </c>
+      <c r="B34">
         <v>21460</v>
       </c>
     </row>
@@ -38437,7 +38322,7 @@
       <c r="A35" t="s">
         <v>370</v>
       </c>
-      <c r="B35" s="13">
+      <c r="B35">
         <v>17781</v>
       </c>
     </row>
@@ -38445,7 +38330,7 @@
       <c r="A36" t="s">
         <v>371</v>
       </c>
-      <c r="B36" s="13">
+      <c r="B36">
         <v>8569</v>
       </c>
     </row>
@@ -38475,13 +38360,13 @@
       <c r="A47" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="B47" s="13">
+      <c r="B47">
         <v>10305</v>
       </c>
-      <c r="C47" s="13">
+      <c r="C47">
         <v>30502</v>
       </c>
-      <c r="D47" s="13">
+      <c r="D47">
         <v>40807</v>
       </c>
     </row>
@@ -38489,13 +38374,13 @@
       <c r="A48" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="B48" s="13">
+      <c r="B48">
         <v>7940</v>
       </c>
-      <c r="C48" s="13">
+      <c r="C48">
         <v>26400</v>
       </c>
-      <c r="D48" s="13">
+      <c r="D48">
         <v>34340</v>
       </c>
     </row>
@@ -38503,13 +38388,13 @@
       <c r="A49" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="B49" s="13">
+      <c r="B49">
         <v>18662</v>
       </c>
-      <c r="C49" s="13">
+      <c r="C49">
         <v>58510</v>
       </c>
-      <c r="D49" s="13">
+      <c r="D49">
         <v>77172</v>
       </c>
     </row>
@@ -38517,13 +38402,13 @@
       <c r="A50" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="B50" s="13">
+      <c r="B50">
         <v>17242</v>
       </c>
-      <c r="C50" s="13">
+      <c r="C50">
         <v>27262</v>
       </c>
-      <c r="D50" s="13">
+      <c r="D50">
         <v>44504</v>
       </c>
     </row>
@@ -38531,13 +38416,13 @@
       <c r="A51" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="B51" s="13">
+      <c r="B51">
         <v>6618</v>
       </c>
-      <c r="C51" s="13">
+      <c r="C51">
         <v>10089</v>
       </c>
-      <c r="D51" s="13">
+      <c r="D51">
         <v>16707</v>
       </c>
     </row>
@@ -38545,13 +38430,13 @@
       <c r="A52" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="B52" s="13">
+      <c r="B52">
         <v>60767</v>
       </c>
-      <c r="C52" s="13">
+      <c r="C52">
         <v>152763</v>
       </c>
-      <c r="D52" s="13">
+      <c r="D52">
         <v>213530</v>
       </c>
     </row>
@@ -38573,7 +38458,7 @@
       <c r="A58" s="4">
         <v>631.74556213017752</v>
       </c>
-      <c r="B58" s="13">
+      <c r="B58">
         <v>338</v>
       </c>
       <c r="C58" s="4">
